--- a/NetBeansProjects/MarkJournalM/1fiz Математика.xlsx
+++ b/NetBeansProjects/MarkJournalM/1fiz Математика.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,19 +93,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="F2" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -113,22 +110,25 @@
         <v>3</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
         <v>3.0</v>
       </c>
-      <c r="D3" t="n" s="0">
+      <c r="F3" t="n" s="0">
         <v>2.0</v>
       </c>
-      <c r="E3" t="n" s="0">
+      <c r="G3" t="n" s="0">
         <v>5.0</v>
       </c>
-      <c r="F3" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="G3" t="n" s="0">
-        <v>3.0</v>
+      <c r="H3" t="n" s="0">
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -136,6 +136,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
         <v>3.0</v>
       </c>
     </row>
@@ -147,7 +156,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>5.0</v>
@@ -155,10 +164,13 @@
       <c r="E5" t="n" s="0">
         <v>3.0</v>
       </c>
+      <c r="F5" t="n" s="0">
+        <v>5.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/NetBeansProjects/MarkJournalM/1fiz Математика.xlsx
+++ b/NetBeansProjects/MarkJournalM/1fiz Математика.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,16 +93,25 @@
         <v>2</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D2" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -113,21 +122,27 @@
         <v>5.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="H3" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="I3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J3" t="n" s="0">
         <v>2.0</v>
       </c>
     </row>
@@ -136,16 +151,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>3.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -162,15 +180,15 @@
         <v>5.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
